--- a/data/firstaid_2018.xlsx
+++ b/data/firstaid_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d0yxn\Desktop\Develop\SchoolAccident\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A998373-8951-4615-B580-BF339AAA4CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FD590F-C038-4881-A9B7-35871D0A2F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{5EF78DA4-668E-4EBE-88ED-2EB4E83F2647}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <t>초등</t>
   </si>
   <si>
-    <t>중·고등</t>
-  </si>
-  <si>
     <t>성인</t>
   </si>
   <si>
@@ -98,6 +95,10 @@
   </si>
   <si>
     <t>제주특별자치도</t>
+  </si>
+  <si>
+    <t>중고등</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1051,7 +1052,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1786D94D-51A8-4780-97F8-A9699521217F}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -1069,24 +1072,24 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>298410</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>58616</v>
@@ -1144,7 +1147,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>50634</v>
@@ -1173,7 +1176,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>45085</v>
@@ -1202,7 +1205,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>60625</v>
@@ -1231,7 +1234,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>42781</v>
@@ -1260,7 +1263,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>39990</v>
@@ -1289,7 +1292,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>15017</v>
@@ -1318,7 +1321,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>460480</v>
@@ -1347,7 +1350,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>191764</v>
@@ -1376,7 +1379,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>129044</v>
@@ -1405,7 +1408,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>259652</v>
@@ -1434,7 +1437,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>103454</v>
@@ -1463,7 +1466,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>88101</v>
@@ -1492,7 +1495,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>86385</v>
@@ -1521,7 +1524,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>146774</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>43172</v>
